--- a/06-03-2023/data/output/xlsx/Entropy-Failure (LEQ)/Entropy.xlsx
+++ b/06-03-2023/data/output/xlsx/Entropy-Failure (LEQ)/Entropy.xlsx
@@ -161,10 +161,10 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>0.6000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>0.7000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.8</c:v>
@@ -469,10 +469,10 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>0.6000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>0.7000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.8</c:v>
@@ -574,7 +574,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.1</c:v>
+                  <c:v>4.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>4.2</c:v>
@@ -837,10 +837,10 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>0.6000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>0.7000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.8</c:v>
@@ -1583,7 +1583,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.6</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C8" s="1">
         <v>52</v>
@@ -1600,7 +1600,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.7</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C9" s="1">
         <v>52</v>
@@ -2209,7 +2209,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.6</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
@@ -2226,7 +2226,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.7</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -2804,7 +2804,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>4.1</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="C43" s="1">
         <v>200</v>
@@ -3005,7 +3005,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.6</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C8" s="1">
         <v>57</v>
@@ -3022,7 +3022,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.7</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C9" s="1">
         <v>57</v>

--- a/06-03-2023/data/output/xlsx/Entropy-Failure (LEQ)/Entropy.xlsx
+++ b/06-03-2023/data/output/xlsx/Entropy-Failure (LEQ)/Entropy.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
-    <t>leq_value</t>
+    <t>geq_value</t>
   </si>
   <si>
     <t>number of incorrect</t>
@@ -146,106 +146,115 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.4689955935892811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.7219280948873621</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>0.881290899230692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>0.921928094887362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.970950594454668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6000000000000001</c:v>
+                  <c:v>1.156779649447039</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7000000000000001</c:v>
+                  <c:v>1.295461844238322</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8</c:v>
+                  <c:v>1.356779649447039</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9</c:v>
+                  <c:v>1.360964047443681</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.370950594454668</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1</c:v>
+                  <c:v>1.485475297227334</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2</c:v>
+                  <c:v>1.521928094887362</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3</c:v>
+                  <c:v>1.570950594454668</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4</c:v>
+                  <c:v>1.685475297227334</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5</c:v>
+                  <c:v>1.721928094887362</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6</c:v>
+                  <c:v>1.760964047443681</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7</c:v>
+                  <c:v>1.770950594454668</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8</c:v>
+                  <c:v>1.846439344671015</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9</c:v>
+                  <c:v>1.921928094887362</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>1.960964047443681</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1</c:v>
+                  <c:v>2.046439344671015</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2</c:v>
+                  <c:v>2.121928094887362</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.3</c:v>
+                  <c:v>2.160964047443681</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.4</c:v>
+                  <c:v>2.170950594454668</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.5</c:v>
+                  <c:v>2.170950594454669</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.6</c:v>
+                  <c:v>2.321928094887362</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.7</c:v>
+                  <c:v>2.370950594454668</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8</c:v>
+                  <c:v>2.446439344671015</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.9</c:v>
+                  <c:v>2.446439344671016</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3</c:v>
+                  <c:v>2.521928094887362</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.1</c:v>
+                  <c:v>2.565957320949175</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2</c:v>
+                  <c:v>2.646439344671015</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.3</c:v>
+                  <c:v>2.721928094887362</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4</c:v>
+                  <c:v>2.846439344671015</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.921928094887362</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.121928094887362</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.321928094887362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -260,61 +269,61 @@
                   <c:v>0.07637231503579953</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.07637231503579953</c:v>
+                  <c:v>0.08681135225375626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.07637231503579953</c:v>
+                  <c:v>0.09448818897637795</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.07637231503579953</c:v>
+                  <c:v>0.1032357473035439</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.07637231503579953</c:v>
+                  <c:v>0.1114206128133705</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.08681135225375626</c:v>
+                  <c:v>0.1167582417582418</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.08681135225375626</c:v>
+                  <c:v>0.1216577540106952</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.08681135225375626</c:v>
+                  <c:v>0.1226912928759894</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.09448818897637795</c:v>
+                  <c:v>0.1282689912826899</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1032357473035439</c:v>
+                  <c:v>0.1358629130966952</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1167582417582418</c:v>
+                  <c:v>0.1353658536585366</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1167582417582418</c:v>
+                  <c:v>0.1364190012180268</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1216577540106952</c:v>
+                  <c:v>0.1374695863746959</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1226912928759894</c:v>
+                  <c:v>0.138755980861244</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1353658536585366</c:v>
+                  <c:v>0.1460541813898704</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1364190012180268</c:v>
+                  <c:v>0.1480611045828437</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.138755980861244</c:v>
+                  <c:v>0.1495327102803738</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1460541813898704</c:v>
+                  <c:v>0.1527149321266968</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1527149321266968</c:v>
+                  <c:v>0.1525423728813559</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1525423728813559</c:v>
+                  <c:v>0.1523702031602709</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.1561461794019934</c:v>
@@ -323,42 +332,51 @@
                   <c:v>0.1610076670317634</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>0.1637554585152838</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1657638136511376</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1673866090712743</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0.1691810344827586</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.1691810344827586</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
+                  <c:v>0.1725239616613418</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0.1742826780021254</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
+                  <c:v>0.1765327695560254</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>0.17740232312566</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="30">
+                  <c:v>0.1814389989572471</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0.1822916666666667</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
                   <c:v>0.1901336073997945</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
                   <c:v>0.1926229508196721</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>0.1943031536113937</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="35">
                   <c:v>0.1945288753799392</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.1945288753799392</c:v>
-                </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="36">
                   <c:v>0.1989949748743719</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.1989949748743719</c:v>
-                </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="37">
                   <c:v>0.2014028056112225</c:v>
                 </c:pt>
               </c:numCache>
@@ -454,136 +472,118 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.4689955935892811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.7219280948873621</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>0.881290899230692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>0.921928094887362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.970950594454668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6000000000000001</c:v>
+                  <c:v>1.156779649447039</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7000000000000001</c:v>
+                  <c:v>1.295461844238322</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8</c:v>
+                  <c:v>1.356779649447039</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9</c:v>
+                  <c:v>1.360964047443681</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.370950594454668</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1</c:v>
+                  <c:v>1.485475297227334</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2</c:v>
+                  <c:v>1.570950594454668</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3</c:v>
+                  <c:v>1.570950594454669</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4</c:v>
+                  <c:v>1.685475297227334</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5</c:v>
+                  <c:v>1.721928094887362</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6</c:v>
+                  <c:v>1.760964047443681</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7</c:v>
+                  <c:v>1.770950594454668</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8</c:v>
+                  <c:v>1.846439344671015</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9</c:v>
+                  <c:v>1.895461844238321</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>1.921928094887362</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1</c:v>
+                  <c:v>1.960964047443681</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2</c:v>
+                  <c:v>2.046439344671015</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.3</c:v>
+                  <c:v>2.121928094887362</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.4</c:v>
+                  <c:v>2.160964047443681</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.5</c:v>
+                  <c:v>2.170950594454668</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.6</c:v>
+                  <c:v>2.170950594454669</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.7</c:v>
+                  <c:v>2.246439344671015</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8</c:v>
+                  <c:v>2.321928094887362</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.9</c:v>
+                  <c:v>2.370950594454668</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3</c:v>
+                  <c:v>2.446439344671015</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.1</c:v>
+                  <c:v>2.521928094887362</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2</c:v>
+                  <c:v>2.646439344671015</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.3</c:v>
+                  <c:v>2.721928094887362</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4</c:v>
+                  <c:v>2.846439344671015</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.5</c:v>
+                  <c:v>2.921928094887362</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6</c:v>
+                  <c:v>3.121928094887362</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7</c:v>
+                  <c:v>3.321928094887362</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.4</c:v>
+                  <c:v>4.321928094887363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -598,135 +598,117 @@
                   <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.2631578947368421</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.2647058823529412</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25</c:v>
+                  <c:v>0.2571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25</c:v>
+                  <c:v>0.2045454545454546</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25</c:v>
+                  <c:v>0.1836734693877551</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2631578947368421</c:v>
+                  <c:v>0.1805555555555556</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25</c:v>
+                  <c:v>0.1780821917808219</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2571428571428571</c:v>
+                  <c:v>0.1891891891891892</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2571428571428571</c:v>
+                  <c:v>0.1866666666666667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2045454545454546</c:v>
+                  <c:v>0.1724137931034483</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1836734693877551</c:v>
+                  <c:v>0.1818181818181818</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1891891891891892</c:v>
+                  <c:v>0.1649484536082474</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1866666666666667</c:v>
+                  <c:v>0.1683168316831683</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1818181818181818</c:v>
+                  <c:v>0.1634615384615385</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1649484536082474</c:v>
+                  <c:v>0.1690140845070423</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1690140845070423</c:v>
+                  <c:v>0.1678321678321678</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.1666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0.1724137931034483</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0.1787709497206704</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>0.1813471502590674</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
+                  <c:v>0.1813725490196078</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1902834008097166</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0.1872509960159363</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="27">
                   <c:v>0.1865079365079365</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="28">
+                  <c:v>0.176056338028169</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>0.1790540540540541</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>0.1847133757961783</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="31">
                   <c:v>0.1775956284153005</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
                   <c:v>0.1655172413793103</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
                   <c:v>0.1621621621621622</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>0.1595330739299611</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="35">
                   <c:v>0.1559792027729636</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.1559792027729636</c:v>
-                </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="36">
                   <c:v>0.1627906976744186</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.1627906976744186</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.2006018054162488</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.2006018054162488</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.2006018054162488</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.2006018054162488</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.2006018054162488</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.2006018054162488</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.2006018054162488</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.2006018054162488</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.2006018054162488</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.2006018054162488</c:v>
-                </c:pt>
-                <c:pt idx="44">
                   <c:v>0.2014028056112225</c:v>
                 </c:pt>
               </c:numCache>
@@ -822,94 +804,112 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.4689955935892811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.7219280948873621</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>0.881290899230692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>0.921928094887362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.970950594454668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6000000000000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7000000000000001</c:v>
+                  <c:v>1.156779649447039</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8</c:v>
+                  <c:v>1.295461844238322</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9</c:v>
+                  <c:v>1.356779649447039</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.360964047443681</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1</c:v>
+                  <c:v>1.370950594454668</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2</c:v>
+                  <c:v>1.485475297227334</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3</c:v>
+                  <c:v>1.521928094887362</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4</c:v>
+                  <c:v>1.570950594454668</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5</c:v>
+                  <c:v>1.685475297227334</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6</c:v>
+                  <c:v>1.721928094887362</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7</c:v>
+                  <c:v>1.760964047443681</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8</c:v>
+                  <c:v>1.770950594454668</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9</c:v>
+                  <c:v>1.846439344671015</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>1.895461844238321</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1</c:v>
+                  <c:v>1.895461844238322</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2</c:v>
+                  <c:v>1.921928094887362</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.3</c:v>
+                  <c:v>1.960964047443681</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.4</c:v>
+                  <c:v>2.046439344671015</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.5</c:v>
+                  <c:v>2.121928094887362</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.6</c:v>
+                  <c:v>2.160964047443681</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.7</c:v>
+                  <c:v>2.170950594454668</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8</c:v>
+                  <c:v>2.219240704636848</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.9</c:v>
+                  <c:v>2.246439344671015</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3</c:v>
+                  <c:v>2.321928094887362</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.370950594454668</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.446439344671015</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.521928094887362</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.646439344671015</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.846439344671015</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.921928094887362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -924,93 +924,111 @@
                   <c:v>0.09401709401709402</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.09401709401709402</c:v>
+                  <c:v>0.1298405466970387</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.09401709401709402</c:v>
+                  <c:v>0.1468253968253968</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.09401709401709402</c:v>
+                  <c:v>0.1528776978417266</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.09401709401709402</c:v>
+                  <c:v>0.1529790660225443</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1298405466970387</c:v>
+                  <c:v>0.1606606606606606</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1298405466970387</c:v>
+                  <c:v>0.162043795620438</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1298405466970387</c:v>
+                  <c:v>0.168724279835391</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1468253968253968</c:v>
+                  <c:v>0.1731770833333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1528776978417266</c:v>
+                  <c:v>0.1733668341708543</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.162043795620438</c:v>
+                  <c:v>0.1727493917274939</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.162043795620438</c:v>
+                  <c:v>0.1710843373493976</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.168724279835391</c:v>
+                  <c:v>0.1720430107526882</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1731770833333333</c:v>
+                  <c:v>0.1712247324613555</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1710843373493976</c:v>
+                  <c:v>0.1776765375854214</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1720430107526882</c:v>
+                  <c:v>0.1836506159014558</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1776765375854214</c:v>
+                  <c:v>0.1851441241685144</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1836506159014558</c:v>
+                  <c:v>0.1856353591160221</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.1882480957562568</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1872981700753499</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0.1870967741935484</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
+                  <c:v>0.1868958109559613</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0.1915343915343915</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>0.194327731092437</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
+                  <c:v>0.1943573667711599</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1949947862356622</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0.1956295525494277</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
+                  <c:v>0.1964656964656965</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>0.1968911917098446</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="30">
+                  <c:v>0.197948717948718</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0.1993865030674846</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="32">
                   <c:v>0.1997971602434077</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="33">
                   <c:v>0.1991911021233569</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="34">
                   <c:v>0.2002012072434608</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.2002012072434608</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="35">
                   <c:v>0.2008032128514056</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="36">
                   <c:v>0.2014028056112225</c:v>
                 </c:pt>
               </c:numCache>
@@ -1453,7 +1471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1498,16 +1516,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.1</v>
+        <v>0.4689955935892811</v>
       </c>
       <c r="C3" s="1">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1">
-        <v>419</v>
+        <v>599</v>
       </c>
       <c r="E3" s="1">
-        <v>0.07637231503579953</v>
+        <v>0.08681135225375626</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1515,16 +1533,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.2</v>
+        <v>0.7219280948873621</v>
       </c>
       <c r="C4" s="1">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1">
-        <v>419</v>
+        <v>635</v>
       </c>
       <c r="E4" s="1">
-        <v>0.07637231503579953</v>
+        <v>0.09448818897637795</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1532,16 +1550,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.3</v>
+        <v>0.881290899230692</v>
       </c>
       <c r="C5" s="1">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1">
-        <v>419</v>
+        <v>649</v>
       </c>
       <c r="E5" s="1">
-        <v>0.07637231503579953</v>
+        <v>0.1032357473035439</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1549,16 +1567,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.4</v>
+        <v>0.921928094887362</v>
       </c>
       <c r="C6" s="1">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="D6" s="1">
-        <v>419</v>
+        <v>718</v>
       </c>
       <c r="E6" s="1">
-        <v>0.07637231503579953</v>
+        <v>0.1114206128133705</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1566,16 +1584,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.5</v>
+        <v>0.970950594454668</v>
       </c>
       <c r="C7" s="1">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="D7" s="1">
-        <v>599</v>
+        <v>728</v>
       </c>
       <c r="E7" s="1">
-        <v>0.08681135225375626</v>
+        <v>0.1167582417582418</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1583,16 +1601,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.6000000000000001</v>
+        <v>1.156779649447039</v>
       </c>
       <c r="C8" s="1">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1">
-        <v>599</v>
+        <v>748</v>
       </c>
       <c r="E8" s="1">
-        <v>0.08681135225375626</v>
+        <v>0.1216577540106952</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1600,16 +1618,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.7000000000000001</v>
+        <v>1.295461844238322</v>
       </c>
       <c r="C9" s="1">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="D9" s="1">
-        <v>599</v>
+        <v>758</v>
       </c>
       <c r="E9" s="1">
-        <v>0.08681135225375626</v>
+        <v>0.1226912928759894</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1617,16 +1635,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.8</v>
+        <v>1.356779649447039</v>
       </c>
       <c r="C10" s="1">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="D10" s="1">
-        <v>635</v>
+        <v>803</v>
       </c>
       <c r="E10" s="1">
-        <v>0.09448818897637795</v>
+        <v>0.1282689912826899</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1634,16 +1652,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.9</v>
+        <v>1.360964047443681</v>
       </c>
       <c r="C11" s="1">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="D11" s="1">
-        <v>649</v>
+        <v>817</v>
       </c>
       <c r="E11" s="1">
-        <v>0.1032357473035439</v>
+        <v>0.1358629130966952</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1651,16 +1669,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>1.370950594454668</v>
       </c>
       <c r="C12" s="1">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D12" s="1">
-        <v>728</v>
+        <v>820</v>
       </c>
       <c r="E12" s="1">
-        <v>0.1167582417582418</v>
+        <v>0.1353658536585366</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1668,16 +1686,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>1.1</v>
+        <v>1.485475297227334</v>
       </c>
       <c r="C13" s="1">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="D13" s="1">
-        <v>728</v>
+        <v>821</v>
       </c>
       <c r="E13" s="1">
-        <v>0.1167582417582418</v>
+        <v>0.1364190012180268</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1685,16 +1703,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>1.2</v>
+        <v>1.521928094887362</v>
       </c>
       <c r="C14" s="1">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D14" s="1">
-        <v>748</v>
+        <v>822</v>
       </c>
       <c r="E14" s="1">
-        <v>0.1216577540106952</v>
+        <v>0.1374695863746959</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1702,16 +1720,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>1.3</v>
+        <v>1.570950594454668</v>
       </c>
       <c r="C15" s="1">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="D15" s="1">
-        <v>758</v>
+        <v>836</v>
       </c>
       <c r="E15" s="1">
-        <v>0.1226912928759894</v>
+        <v>0.138755980861244</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1719,16 +1737,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>1.4</v>
+        <v>1.685475297227334</v>
       </c>
       <c r="C16" s="1">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D16" s="1">
-        <v>820</v>
+        <v>849</v>
       </c>
       <c r="E16" s="1">
-        <v>0.1353658536585366</v>
+        <v>0.1460541813898704</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1736,16 +1754,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>1.5</v>
+        <v>1.721928094887362</v>
       </c>
       <c r="C17" s="1">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D17" s="1">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="E17" s="1">
-        <v>0.1364190012180268</v>
+        <v>0.1480611045828437</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1753,16 +1771,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>1.6</v>
+        <v>1.760964047443681</v>
       </c>
       <c r="C18" s="1">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D18" s="1">
-        <v>836</v>
+        <v>856</v>
       </c>
       <c r="E18" s="1">
-        <v>0.138755980861244</v>
+        <v>0.1495327102803738</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1770,16 +1788,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>1.7</v>
+        <v>1.770950594454668</v>
       </c>
       <c r="C19" s="1">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D19" s="1">
-        <v>849</v>
+        <v>884</v>
       </c>
       <c r="E19" s="1">
-        <v>0.1460541813898704</v>
+        <v>0.1527149321266968</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1787,16 +1805,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>1.8</v>
+        <v>1.846439344671015</v>
       </c>
       <c r="C20" s="1">
         <v>135</v>
       </c>
       <c r="D20" s="1">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E20" s="1">
-        <v>0.1527149321266968</v>
+        <v>0.1525423728813559</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1804,16 +1822,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>1.9</v>
+        <v>1.921928094887362</v>
       </c>
       <c r="C21" s="1">
         <v>135</v>
       </c>
       <c r="D21" s="1">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="E21" s="1">
-        <v>0.1525423728813559</v>
+        <v>0.1523702031602709</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1821,7 +1839,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>2</v>
+        <v>1.960964047443681</v>
       </c>
       <c r="C22" s="1">
         <v>141</v>
@@ -1838,7 +1856,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>2.1</v>
+        <v>2.046439344671015</v>
       </c>
       <c r="C23" s="1">
         <v>147</v>
@@ -1855,16 +1873,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>2.2</v>
+        <v>2.121928094887362</v>
       </c>
       <c r="C24" s="1">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D24" s="1">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="E24" s="1">
-        <v>0.1691810344827586</v>
+        <v>0.1637554585152838</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1872,16 +1890,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>2.3</v>
+        <v>2.160964047443681</v>
       </c>
       <c r="C25" s="1">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D25" s="1">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="E25" s="1">
-        <v>0.1691810344827586</v>
+        <v>0.1657638136511376</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1889,16 +1907,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>2.4</v>
+        <v>2.170950594454668</v>
       </c>
       <c r="C26" s="1">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D26" s="1">
-        <v>941</v>
+        <v>926</v>
       </c>
       <c r="E26" s="1">
-        <v>0.1742826780021254</v>
+        <v>0.1673866090712743</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1906,16 +1924,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>2.5</v>
+        <v>2.170950594454669</v>
       </c>
       <c r="C27" s="1">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D27" s="1">
-        <v>947</v>
+        <v>928</v>
       </c>
       <c r="E27" s="1">
-        <v>0.17740232312566</v>
+        <v>0.1691810344827586</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1923,16 +1941,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>2.6</v>
+        <v>2.321928094887362</v>
       </c>
       <c r="C28" s="1">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D28" s="1">
-        <v>960</v>
+        <v>939</v>
       </c>
       <c r="E28" s="1">
-        <v>0.1822916666666667</v>
+        <v>0.1725239616613418</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1940,16 +1958,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>2.7</v>
+        <v>2.370950594454668</v>
       </c>
       <c r="C29" s="1">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="D29" s="1">
-        <v>973</v>
+        <v>941</v>
       </c>
       <c r="E29" s="1">
-        <v>0.1901336073997945</v>
+        <v>0.1742826780021254</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1957,16 +1975,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>2.8</v>
+        <v>2.446439344671015</v>
       </c>
       <c r="C30" s="1">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D30" s="1">
-        <v>976</v>
+        <v>946</v>
       </c>
       <c r="E30" s="1">
-        <v>0.1926229508196721</v>
+        <v>0.1765327695560254</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1974,16 +1992,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>2.9</v>
+        <v>2.446439344671016</v>
       </c>
       <c r="C31" s="1">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D31" s="1">
-        <v>983</v>
+        <v>947</v>
       </c>
       <c r="E31" s="1">
-        <v>0.1943031536113937</v>
+        <v>0.17740232312566</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1991,16 +2009,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>3</v>
+        <v>2.521928094887362</v>
       </c>
       <c r="C32" s="1">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="D32" s="1">
-        <v>987</v>
+        <v>959</v>
       </c>
       <c r="E32" s="1">
-        <v>0.1945288753799392</v>
+        <v>0.1814389989572471</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2008,16 +2026,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>3.1</v>
+        <v>2.565957320949175</v>
       </c>
       <c r="C33" s="1">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="D33" s="1">
-        <v>987</v>
+        <v>960</v>
       </c>
       <c r="E33" s="1">
-        <v>0.1945288753799392</v>
+        <v>0.1822916666666667</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2025,16 +2043,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>3.2</v>
+        <v>2.646439344671015</v>
       </c>
       <c r="C34" s="1">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D34" s="1">
-        <v>995</v>
+        <v>973</v>
       </c>
       <c r="E34" s="1">
-        <v>0.1989949748743719</v>
+        <v>0.1901336073997945</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2042,16 +2060,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>3.3</v>
+        <v>2.721928094887362</v>
       </c>
       <c r="C35" s="1">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D35" s="1">
-        <v>995</v>
+        <v>976</v>
       </c>
       <c r="E35" s="1">
-        <v>0.1989949748743719</v>
+        <v>0.1926229508196721</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2059,15 +2077,66 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>3.4</v>
+        <v>2.846439344671015</v>
       </c>
       <c r="C36" s="1">
+        <v>191</v>
+      </c>
+      <c r="D36" s="1">
+        <v>983</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.1943031536113937</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2.921928094887362</v>
+      </c>
+      <c r="C37" s="1">
+        <v>192</v>
+      </c>
+      <c r="D37" s="1">
+        <v>987</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.1945288753799392</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3.121928094887362</v>
+      </c>
+      <c r="C38" s="1">
+        <v>198</v>
+      </c>
+      <c r="D38" s="1">
+        <v>995</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.1989949748743719</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3.321928094887362</v>
+      </c>
+      <c r="C39" s="1">
         <v>201</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D39" s="1">
         <v>998</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E39" s="1">
         <v>0.2014028056112225</v>
       </c>
     </row>
@@ -2079,7 +2148,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2124,16 +2193,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.1</v>
+        <v>0.4689955935892811</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2141,16 +2210,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.2</v>
+        <v>0.7219280948873621</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1">
-        <v>0.2857142857142857</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2158,16 +2227,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.3</v>
+        <v>0.881290899230692</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2175,16 +2244,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.4</v>
+        <v>0.921928094887362</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1">
-        <v>0.2857142857142857</v>
+        <v>0.2647058823529412</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2192,16 +2261,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.5</v>
+        <v>0.970950594454668</v>
       </c>
       <c r="C7" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1">
-        <v>0.25</v>
+        <v>0.2571428571428571</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2209,16 +2278,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.6000000000000001</v>
+        <v>1.156779649447039</v>
       </c>
       <c r="C8" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1">
-        <v>0.25</v>
+        <v>0.2045454545454546</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2226,16 +2295,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.7000000000000001</v>
+        <v>1.295461844238322</v>
       </c>
       <c r="C9" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1">
-        <v>0.25</v>
+        <v>0.1836734693877551</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2243,16 +2312,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.8</v>
+        <v>1.356779649447039</v>
       </c>
       <c r="C10" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="E10" s="1">
-        <v>0.2631578947368421</v>
+        <v>0.1805555555555556</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2260,16 +2329,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.9</v>
+        <v>1.360964047443681</v>
       </c>
       <c r="C11" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E11" s="1">
-        <v>0.25</v>
+        <v>0.1780821917808219</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2277,16 +2346,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>1.370950594454668</v>
       </c>
       <c r="C12" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="E12" s="1">
-        <v>0.2571428571428571</v>
+        <v>0.1891891891891892</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2294,16 +2363,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>1.1</v>
+        <v>1.485475297227334</v>
       </c>
       <c r="C13" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="E13" s="1">
-        <v>0.2571428571428571</v>
+        <v>0.1866666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2311,16 +2380,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>1.2</v>
+        <v>1.570950594454668</v>
       </c>
       <c r="C14" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="E14" s="1">
-        <v>0.2045454545454546</v>
+        <v>0.1724137931034483</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2328,16 +2397,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>1.3</v>
+        <v>1.570950594454669</v>
       </c>
       <c r="C15" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="E15" s="1">
-        <v>0.1836734693877551</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2345,16 +2414,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>1.4</v>
+        <v>1.685475297227334</v>
       </c>
       <c r="C16" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E16" s="1">
-        <v>0.1891891891891892</v>
+        <v>0.1649484536082474</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2362,16 +2431,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>1.5</v>
+        <v>1.721928094887362</v>
       </c>
       <c r="C17" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="E17" s="1">
-        <v>0.1866666666666667</v>
+        <v>0.1683168316831683</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2379,16 +2448,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>1.6</v>
+        <v>1.760964047443681</v>
       </c>
       <c r="C18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="E18" s="1">
-        <v>0.1818181818181818</v>
+        <v>0.1634615384615385</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2396,16 +2465,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>1.7</v>
+        <v>1.770950594454668</v>
       </c>
       <c r="C19" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="E19" s="1">
-        <v>0.1649484536082474</v>
+        <v>0.1690140845070423</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2413,16 +2482,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>1.8</v>
+        <v>1.846439344671015</v>
       </c>
       <c r="C20" s="1">
         <v>24</v>
       </c>
       <c r="D20" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E20" s="1">
-        <v>0.1690140845070423</v>
+        <v>0.1678321678321678</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2430,7 +2499,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>1.9</v>
+        <v>1.895461844238321</v>
       </c>
       <c r="C21" s="1">
         <v>24</v>
@@ -2447,16 +2516,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>2</v>
+        <v>1.921928094887362</v>
       </c>
       <c r="C22" s="1">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="E22" s="1">
-        <v>0.1787709497206704</v>
+        <v>0.1724137931034483</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2464,16 +2533,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>2.1</v>
+        <v>1.960964047443681</v>
       </c>
       <c r="C23" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D23" s="1">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="E23" s="1">
-        <v>0.1813471502590674</v>
+        <v>0.1787709497206704</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2481,16 +2550,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>2.2</v>
+        <v>2.046439344671015</v>
       </c>
       <c r="C24" s="1">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D24" s="1">
-        <v>251</v>
+        <v>193</v>
       </c>
       <c r="E24" s="1">
-        <v>0.1872509960159363</v>
+        <v>0.1813471502590674</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2498,16 +2567,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>2.3</v>
+        <v>2.121928094887362</v>
       </c>
       <c r="C25" s="1">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D25" s="1">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="E25" s="1">
-        <v>0.1865079365079365</v>
+        <v>0.1813725490196078</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2515,16 +2584,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>2.4</v>
+        <v>2.160964047443681</v>
       </c>
       <c r="C26" s="1">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D26" s="1">
-        <v>296</v>
+        <v>247</v>
       </c>
       <c r="E26" s="1">
-        <v>0.1790540540540541</v>
+        <v>0.1902834008097166</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2532,16 +2601,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>2.5</v>
+        <v>2.170950594454668</v>
       </c>
       <c r="C27" s="1">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D27" s="1">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="E27" s="1">
-        <v>0.1847133757961783</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2549,16 +2618,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>2.6</v>
+        <v>2.170950594454669</v>
       </c>
       <c r="C28" s="1">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D28" s="1">
-        <v>366</v>
+        <v>251</v>
       </c>
       <c r="E28" s="1">
-        <v>0.1775956284153005</v>
+        <v>0.1872509960159363</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2566,16 +2635,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>2.7</v>
+        <v>2.246439344671015</v>
       </c>
       <c r="C29" s="1">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D29" s="1">
-        <v>435</v>
+        <v>252</v>
       </c>
       <c r="E29" s="1">
-        <v>0.1655172413793103</v>
+        <v>0.1865079365079365</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2583,16 +2652,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>2.8</v>
+        <v>2.321928094887362</v>
       </c>
       <c r="C30" s="1">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D30" s="1">
-        <v>444</v>
+        <v>284</v>
       </c>
       <c r="E30" s="1">
-        <v>0.1621621621621622</v>
+        <v>0.176056338028169</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2600,16 +2669,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>2.9</v>
+        <v>2.370950594454668</v>
       </c>
       <c r="C31" s="1">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="D31" s="1">
-        <v>514</v>
+        <v>296</v>
       </c>
       <c r="E31" s="1">
-        <v>0.1595330739299611</v>
+        <v>0.1790540540540541</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2617,16 +2686,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>3</v>
+        <v>2.446439344671015</v>
       </c>
       <c r="C32" s="1">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D32" s="1">
-        <v>577</v>
+        <v>314</v>
       </c>
       <c r="E32" s="1">
-        <v>0.1559792027729636</v>
+        <v>0.1847133757961783</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2634,16 +2703,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>3.1</v>
+        <v>2.521928094887362</v>
       </c>
       <c r="C33" s="1">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D33" s="1">
-        <v>577</v>
+        <v>366</v>
       </c>
       <c r="E33" s="1">
-        <v>0.1559792027729636</v>
+        <v>0.1775956284153005</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2651,16 +2720,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>3.2</v>
+        <v>2.646439344671015</v>
       </c>
       <c r="C34" s="1">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="D34" s="1">
-        <v>731</v>
+        <v>435</v>
       </c>
       <c r="E34" s="1">
-        <v>0.1627906976744186</v>
+        <v>0.1655172413793103</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2668,16 +2737,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>3.3</v>
+        <v>2.721928094887362</v>
       </c>
       <c r="C35" s="1">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="D35" s="1">
-        <v>731</v>
+        <v>444</v>
       </c>
       <c r="E35" s="1">
-        <v>0.1627906976744186</v>
+        <v>0.1621621621621622</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2685,16 +2754,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>3.4</v>
+        <v>2.846439344671015</v>
       </c>
       <c r="C36" s="1">
-        <v>200</v>
+        <v>82</v>
       </c>
       <c r="D36" s="1">
-        <v>997</v>
+        <v>514</v>
       </c>
       <c r="E36" s="1">
-        <v>0.2006018054162488</v>
+        <v>0.1595330739299611</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2702,16 +2771,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>3.5</v>
+        <v>2.921928094887362</v>
       </c>
       <c r="C37" s="1">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="D37" s="1">
-        <v>997</v>
+        <v>577</v>
       </c>
       <c r="E37" s="1">
-        <v>0.2006018054162488</v>
+        <v>0.1559792027729636</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2719,16 +2788,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>3.6</v>
+        <v>3.121928094887362</v>
       </c>
       <c r="C38" s="1">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="D38" s="1">
-        <v>997</v>
+        <v>731</v>
       </c>
       <c r="E38" s="1">
-        <v>0.2006018054162488</v>
+        <v>0.1627906976744186</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2736,7 +2805,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>3.7</v>
+        <v>3.321928094887362</v>
       </c>
       <c r="C39" s="1">
         <v>200</v>
@@ -2753,117 +2822,15 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>3.8</v>
+        <v>4.321928094887363</v>
       </c>
       <c r="C40" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D40" s="1">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E40" s="1">
-        <v>0.2006018054162488</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="C41" s="1">
-        <v>200</v>
-      </c>
-      <c r="D41" s="1">
-        <v>997</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0.2006018054162488</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1">
-        <v>4</v>
-      </c>
-      <c r="C42" s="1">
-        <v>200</v>
-      </c>
-      <c r="D42" s="1">
-        <v>997</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0.2006018054162488</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2">
-        <v>41</v>
-      </c>
-      <c r="B43" s="1">
-        <v>4.100000000000001</v>
-      </c>
-      <c r="C43" s="1">
-        <v>200</v>
-      </c>
-      <c r="D43" s="1">
-        <v>997</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0.2006018054162488</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="2">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="C44" s="1">
-        <v>200</v>
-      </c>
-      <c r="D44" s="1">
-        <v>997</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0.2006018054162488</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="2">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="C45" s="1">
-        <v>200</v>
-      </c>
-      <c r="D45" s="1">
-        <v>997</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0.2006018054162488</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="2">
-        <v>44</v>
-      </c>
-      <c r="B46" s="1">
-        <v>4.4</v>
-      </c>
-      <c r="C46" s="1">
-        <v>201</v>
-      </c>
-      <c r="D46" s="1">
-        <v>998</v>
-      </c>
-      <c r="E46" s="1">
         <v>0.2014028056112225</v>
       </c>
     </row>
@@ -2875,7 +2842,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2920,16 +2887,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.1</v>
+        <v>0.4689955935892811</v>
       </c>
       <c r="C3" s="1">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1">
-        <v>234</v>
+        <v>439</v>
       </c>
       <c r="E3" s="1">
-        <v>0.09401709401709402</v>
+        <v>0.1298405466970387</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2937,16 +2904,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.2</v>
+        <v>0.7219280948873621</v>
       </c>
       <c r="C4" s="1">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1">
-        <v>234</v>
+        <v>504</v>
       </c>
       <c r="E4" s="1">
-        <v>0.09401709401709402</v>
+        <v>0.1468253968253968</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2954,16 +2921,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.3</v>
+        <v>0.881290899230692</v>
       </c>
       <c r="C5" s="1">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1">
-        <v>234</v>
+        <v>556</v>
       </c>
       <c r="E5" s="1">
-        <v>0.09401709401709402</v>
+        <v>0.1528776978417266</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2971,16 +2938,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.4</v>
+        <v>0.921928094887362</v>
       </c>
       <c r="C6" s="1">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="D6" s="1">
-        <v>234</v>
+        <v>621</v>
       </c>
       <c r="E6" s="1">
-        <v>0.09401709401709402</v>
+        <v>0.1529790660225443</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2988,16 +2955,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.5</v>
+        <v>0.970950594454668</v>
       </c>
       <c r="C7" s="1">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="D7" s="1">
-        <v>439</v>
+        <v>666</v>
       </c>
       <c r="E7" s="1">
-        <v>0.1298405466970387</v>
+        <v>0.1606606606606606</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3005,16 +2972,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.6000000000000001</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="D8" s="1">
-        <v>439</v>
+        <v>685</v>
       </c>
       <c r="E8" s="1">
-        <v>0.1298405466970387</v>
+        <v>0.162043795620438</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3022,16 +2989,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.7000000000000001</v>
+        <v>1.156779649447039</v>
       </c>
       <c r="C9" s="1">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="D9" s="1">
-        <v>439</v>
+        <v>729</v>
       </c>
       <c r="E9" s="1">
-        <v>0.1298405466970387</v>
+        <v>0.168724279835391</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3039,16 +3006,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.8</v>
+        <v>1.295461844238322</v>
       </c>
       <c r="C10" s="1">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="D10" s="1">
-        <v>504</v>
+        <v>768</v>
       </c>
       <c r="E10" s="1">
-        <v>0.1468253968253968</v>
+        <v>0.1731770833333333</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3056,16 +3023,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.9</v>
+        <v>1.356779649447039</v>
       </c>
       <c r="C11" s="1">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="D11" s="1">
-        <v>556</v>
+        <v>796</v>
       </c>
       <c r="E11" s="1">
-        <v>0.1528776978417266</v>
+        <v>0.1733668341708543</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3073,16 +3040,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>1.360964047443681</v>
       </c>
       <c r="C12" s="1">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="D12" s="1">
-        <v>685</v>
+        <v>822</v>
       </c>
       <c r="E12" s="1">
-        <v>0.162043795620438</v>
+        <v>0.1727493917274939</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3090,16 +3057,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>1.1</v>
+        <v>1.370950594454668</v>
       </c>
       <c r="C13" s="1">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="D13" s="1">
-        <v>685</v>
+        <v>830</v>
       </c>
       <c r="E13" s="1">
-        <v>0.162043795620438</v>
+        <v>0.1710843373493976</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3107,16 +3074,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>1.2</v>
+        <v>1.485475297227334</v>
       </c>
       <c r="C14" s="1">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="D14" s="1">
-        <v>729</v>
+        <v>837</v>
       </c>
       <c r="E14" s="1">
-        <v>0.168724279835391</v>
+        <v>0.1720430107526882</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3124,16 +3091,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>1.3</v>
+        <v>1.521928094887362</v>
       </c>
       <c r="C15" s="1">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="D15" s="1">
-        <v>768</v>
+        <v>841</v>
       </c>
       <c r="E15" s="1">
-        <v>0.1731770833333333</v>
+        <v>0.1712247324613555</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3141,16 +3108,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>1.4</v>
+        <v>1.570950594454668</v>
       </c>
       <c r="C16" s="1">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D16" s="1">
-        <v>830</v>
+        <v>878</v>
       </c>
       <c r="E16" s="1">
-        <v>0.1710843373493976</v>
+        <v>0.1776765375854214</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3158,16 +3125,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>1.5</v>
+        <v>1.685475297227334</v>
       </c>
       <c r="C17" s="1">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="D17" s="1">
-        <v>837</v>
+        <v>893</v>
       </c>
       <c r="E17" s="1">
-        <v>0.1720430107526882</v>
+        <v>0.1836506159014558</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3175,16 +3142,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>1.6</v>
+        <v>1.721928094887362</v>
       </c>
       <c r="C18" s="1">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D18" s="1">
-        <v>878</v>
+        <v>902</v>
       </c>
       <c r="E18" s="1">
-        <v>0.1776765375854214</v>
+        <v>0.1851441241685144</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3192,16 +3159,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>1.7</v>
+        <v>1.760964047443681</v>
       </c>
       <c r="C19" s="1">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D19" s="1">
-        <v>893</v>
+        <v>905</v>
       </c>
       <c r="E19" s="1">
-        <v>0.1836506159014558</v>
+        <v>0.1856353591160221</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3209,7 +3176,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>1.8</v>
+        <v>1.770950594454668</v>
       </c>
       <c r="C20" s="1">
         <v>173</v>
@@ -3226,16 +3193,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>1.9</v>
+        <v>1.846439344671015</v>
       </c>
       <c r="C21" s="1">
         <v>174</v>
       </c>
       <c r="D21" s="1">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E21" s="1">
-        <v>0.1870967741935484</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3243,16 +3210,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>2</v>
+        <v>1.895461844238321</v>
       </c>
       <c r="C22" s="1">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D22" s="1">
-        <v>945</v>
+        <v>929</v>
       </c>
       <c r="E22" s="1">
-        <v>0.1915343915343915</v>
+        <v>0.1872981700753499</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3260,16 +3227,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>2.1</v>
+        <v>1.895461844238322</v>
       </c>
       <c r="C23" s="1">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D23" s="1">
-        <v>952</v>
+        <v>930</v>
       </c>
       <c r="E23" s="1">
-        <v>0.194327731092437</v>
+        <v>0.1870967741935484</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3277,16 +3244,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>2.2</v>
+        <v>1.921928094887362</v>
       </c>
       <c r="C24" s="1">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D24" s="1">
-        <v>961</v>
+        <v>931</v>
       </c>
       <c r="E24" s="1">
-        <v>0.1956295525494277</v>
+        <v>0.1868958109559613</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3294,16 +3261,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>2.3</v>
+        <v>1.960964047443681</v>
       </c>
       <c r="C25" s="1">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D25" s="1">
-        <v>965</v>
+        <v>945</v>
       </c>
       <c r="E25" s="1">
-        <v>0.1968911917098446</v>
+        <v>0.1915343915343915</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3311,16 +3278,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>2.4</v>
+        <v>2.046439344671015</v>
       </c>
       <c r="C26" s="1">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D26" s="1">
-        <v>978</v>
+        <v>952</v>
       </c>
       <c r="E26" s="1">
-        <v>0.1993865030674846</v>
+        <v>0.194327731092437</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3328,16 +3295,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>2.5</v>
+        <v>2.121928094887362</v>
       </c>
       <c r="C27" s="1">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D27" s="1">
-        <v>986</v>
+        <v>957</v>
       </c>
       <c r="E27" s="1">
-        <v>0.1997971602434077</v>
+        <v>0.1943573667711599</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3345,16 +3312,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>2.6</v>
+        <v>2.160964047443681</v>
       </c>
       <c r="C28" s="1">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D28" s="1">
-        <v>989</v>
+        <v>959</v>
       </c>
       <c r="E28" s="1">
-        <v>0.1991911021233569</v>
+        <v>0.1949947862356622</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3362,16 +3329,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>2.7</v>
+        <v>2.170950594454668</v>
       </c>
       <c r="C29" s="1">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D29" s="1">
-        <v>994</v>
+        <v>961</v>
       </c>
       <c r="E29" s="1">
-        <v>0.2002012072434608</v>
+        <v>0.1956295525494277</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3379,16 +3346,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>2.8</v>
+        <v>2.219240704636848</v>
       </c>
       <c r="C30" s="1">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D30" s="1">
-        <v>994</v>
+        <v>962</v>
       </c>
       <c r="E30" s="1">
-        <v>0.2002012072434608</v>
+        <v>0.1964656964656965</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3396,16 +3363,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>2.9</v>
+        <v>2.246439344671015</v>
       </c>
       <c r="C31" s="1">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D31" s="1">
-        <v>996</v>
+        <v>965</v>
       </c>
       <c r="E31" s="1">
-        <v>0.2008032128514056</v>
+        <v>0.1968911917098446</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3413,15 +3380,117 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>3</v>
+        <v>2.321928094887362</v>
       </c>
       <c r="C32" s="1">
+        <v>193</v>
+      </c>
+      <c r="D32" s="1">
+        <v>975</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.197948717948718</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2.370950594454668</v>
+      </c>
+      <c r="C33" s="1">
+        <v>195</v>
+      </c>
+      <c r="D33" s="1">
+        <v>978</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.1993865030674846</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2.446439344671015</v>
+      </c>
+      <c r="C34" s="1">
+        <v>197</v>
+      </c>
+      <c r="D34" s="1">
+        <v>986</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.1997971602434077</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2.521928094887362</v>
+      </c>
+      <c r="C35" s="1">
+        <v>197</v>
+      </c>
+      <c r="D35" s="1">
+        <v>989</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.1991911021233569</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2.646439344671015</v>
+      </c>
+      <c r="C36" s="1">
+        <v>199</v>
+      </c>
+      <c r="D36" s="1">
+        <v>994</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.2002012072434608</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2.846439344671015</v>
+      </c>
+      <c r="C37" s="1">
+        <v>200</v>
+      </c>
+      <c r="D37" s="1">
+        <v>996</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.2008032128514056</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2.921928094887362</v>
+      </c>
+      <c r="C38" s="1">
         <v>201</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D38" s="1">
         <v>998</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E38" s="1">
         <v>0.2014028056112225</v>
       </c>
     </row>
